--- a/results/I3_N5_M3_T45_C100_DepCentral_s2_P6_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1103.973334710433</v>
+        <v>637.7290434521012</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.62064465988292</v>
+        <v>9.962688397563227</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.074935918213756</v>
+        <v>9.962688397563227</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>958.5100000000012</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.28</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -890,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>7.178696833155833</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1198,10 +1198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1212,155 +1212,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>148.1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -1474,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>138.7100000000004</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
@@ -1485,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>145.0100000000004</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -1496,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>144.0450000000004</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -1507,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>145.7200000000005</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1518,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4450000000006</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1529,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1540,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1551,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -1562,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -1573,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -1584,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -1595,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1606,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1617,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999999997</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -1628,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1639,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1650,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1661,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1672,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -1683,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.23500000000072</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -1694,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -1705,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52500000000073</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1716,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78500000000072</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -1727,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1738,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>148.1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -1749,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>138.7100000000004</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -1760,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>145.0100000000004</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -1771,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>144.0450000000004</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -1782,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>145.7200000000005</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -1793,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>52.23500000000072</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38">
@@ -1804,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>44.35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39">
@@ -1815,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>44.52500000000073</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
@@ -1826,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>45.78500000000072</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -1837,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>50.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
@@ -1848,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>147.3399999999997</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
@@ -1859,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.2049999999997</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -1870,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>140.4299999999997</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -1881,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>157.7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -1892,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>152.9949999999997</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1939,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>48.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1950,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>38.71000000000043</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1961,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>45.01000000000042</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1972,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>44.04500000000044</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1983,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>45.72000000000045</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -2049,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>47.33999999999972</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>59.20499999999973</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2071,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>40.42999999999972</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2082,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>57.69999999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2093,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>52.99499999999972</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2206,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2217,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2228,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2239,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2305,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2316,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -2327,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -2338,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -2349,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -2418,7 +2278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2500,7 +2360,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2511,7 +2371,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2522,7 +2382,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2533,7 +2393,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2544,122 +2404,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
